--- a/biology/Médecine/Épine_iliaque_antérieure_et_supérieure/Épine_iliaque_antérieure_et_supérieure.xlsx
+++ b/biology/Médecine/Épine_iliaque_antérieure_et_supérieure/Épine_iliaque_antérieure_et_supérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pine_iliaque_ant%C3%A9rieure_et_sup%C3%A9rieure</t>
+          <t>Épine_iliaque_antérieure_et_supérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 L'épine iliaque antérieure et supérieure est une projection osseuse de l'os coxal située sur l'aile de l'ilium.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pine_iliaque_ant%C3%A9rieure_et_sup%C3%A9rieure</t>
+          <t>Épine_iliaque_antérieure_et_supérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épine iliaque antérieure et supérieure est l'extrémité antérieure renflée de la crête iliaque à son union avec le bord antérieur de l'ilium.
 Sa face latérale donne insertion au muscle sartorius et au muscle tenseur du fascia lata.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pine_iliaque_ant%C3%A9rieure_et_sup%C3%A9rieure</t>
+          <t>Épine_iliaque_antérieure_et_supérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épine iliaque antérieure et supérieure est un repère anatomique important facilement palpable sous la peau.
 Il permet de localiser d'autres repères clinique comme le point de Mc Burney, la ligne de Nélaton et de mesurer la longueur réelle de la jambe.
